--- a/data_raw/OnderzoekMedium.xlsx
+++ b/data_raw/OnderzoekMedium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nineluijendijk/NIOOzoo/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921724C3-70D1-B546-AB7E-D4B5F0E95D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6112FE87-0DF4-4B49-BD66-E4392258AEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14740" xr2:uid="{117B65D7-76EE-9041-B491-C5340B98A563}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="85">
   <si>
     <t>Species</t>
   </si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>Heel klein maar wel veel</t>
-  </si>
-  <si>
-    <t>group</t>
   </si>
 </sst>
 </file>
@@ -706,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>

--- a/data_raw/OnderzoekMedium.xlsx
+++ b/data_raw/OnderzoekMedium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nineluijendijk/NIOOzoo/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6112FE87-0DF4-4B49-BD66-E4392258AEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD22569E-101C-E545-A318-4D6C9BC1D0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14740" xr2:uid="{117B65D7-76EE-9041-B491-C5340B98A563}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="ExtraNotes" sheetId="4" r:id="rId3"/>
     <sheet name="AbsorbancesInaccurate" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -687,7 +684,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
